--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB28EAA-22FB-4C9C-A875-01DC78619B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE6BD7-1DF0-44DE-8687-3B61247F0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -76,11 +76,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>10000</v>
+        <v>1E+16</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AE6BD7-1DF0-44DE-8687-3B61247F0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA31F3-8960-42F2-B22E-591339C6A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
@@ -536,10 +536,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -559,10 +559,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA31F3-8960-42F2-B22E-591339C6A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE147304-0396-40AD-BB4E-F3F37515ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4680" yWindow="2925" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokebi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEnemyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -141,6 +153,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,13 +475,13 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
@@ -496,6 +511,9 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -505,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>300000000000</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -514,12 +532,14 @@
         <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>30</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -529,8 +549,8 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>1000</v>
+      <c r="C3" s="4">
+        <v>50000000000000</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -539,10 +559,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -553,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>1E+16</v>
+        <v>100000000000000</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -562,10 +585,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE147304-0396-40AD-BB4E-F3F37515ED87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9255E2B8-1915-42EB-93ED-A4C633762CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2925" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokebi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>PrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,6 +602,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100000000000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9255E2B8-1915-42EB-93ED-A4C633762CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DB8E2B-FEC9-45E5-8EC0-07924C41E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokebi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>PrefabName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dokebi3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -607,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>100000000000000</v>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DB8E2B-FEC9-45E5-8EC0-07924C41E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A8A8A-20FB-4F19-9FDA-B69EC50EA2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7020" yWindow="4110" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokebi" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>100000000000000</v>
+        <v>1E+17</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>

--- a/Assets/06.Table/Dokebi.xlsx
+++ b/Assets/06.Table/Dokebi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8A8A8A-20FB-4F19-9FDA-B69EC50EA2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6F400-AF0C-4E7D-ADA2-ADD2B819A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="4110" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Dokebi" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
